--- a/v2/淘宝购买.xlsx
+++ b/v2/淘宝购买.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF647EE9-E447-436C-A590-6855DDF36FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F24CFB9-C744-4191-8FE8-3EFBAA2B6ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4236" yWindow="3180" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M5六角螺丝螺栓螺母套装 使用12个（螺丝+螺母+垫片）</t>
+    <t>M5*8六角螺丝螺栓螺母套装 使用12个（螺丝+螺母+垫片）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
